--- a/Win32/Binaries/Table/premiums.xlsx
+++ b/Win32/Binaries/Table/premiums.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="注释及辅助表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,10 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奖励格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +67,30 @@
   </si>
   <si>
     <t>contentID</t>
+  </si>
+  <si>
+    <t>1_1_80000;120_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励格式前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_120000;80_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -419,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -432,29 +452,35 @@
     <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -462,10 +488,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -473,10 +502,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>10102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -484,7 +516,10 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>10103</v>
       </c>
     </row>
   </sheetData>
@@ -495,10 +530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="D6" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -508,7 +543,7 @@
     <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,32 +551,41 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -549,10 +593,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -560,10 +607,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>10102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -571,7 +621,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>10103</v>
       </c>
     </row>
   </sheetData>
